--- a/laminado.xlsx
+++ b/laminado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d47032d817d70444/MASTER MUSE/3 CUATRI/MUE/dani_cono/MuE_Patran/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive - Universidad Politécnica de Madrid\Escritorio\UPM\2o\TeP\MuE_Patran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D435F98F-29F2-4D05-86AC-6A2F114E4433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4354861-0A5C-41FF-A3E3-5C83EBE34DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{64E5AC50-0B1D-4E91-A6B6-AFEFF2C0522D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>H_Superior</t>
   </si>
@@ -76,13 +76,16 @@
   </si>
   <si>
     <t>Check5</t>
+  </si>
+  <si>
+    <t>x 5 veces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +93,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +115,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -113,13 +136,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,7 +459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE49EEC8-5302-47CE-838D-2420FD578583}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -448,184 +769,330 @@
     <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I2" s="21"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A14" si="0">A3+1</f>
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I5" s="18"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>A13+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>A14+1</f>
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <f>B4*5</f>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f>C6*5</f>
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <f>D7*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <f>E8*5</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>F3*5+F9*5+F14</f>
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <f>G10*5</f>
+        <v>120</v>
+      </c>
+      <c r="H16">
+        <f>H2*5+H5*5+H13+H15</f>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -685,6 +1152,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B11:H12"/>
+    <mergeCell ref="I11:I12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/laminado.xlsx
+++ b/laminado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive - Universidad Politécnica de Madrid\Escritorio\UPM\2o\TeP\MuE_Patran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d47032d817d70444/MASTER MUSE/3 CUATRI/MUE/dani_cono/MuE_Patran/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4354861-0A5C-41FF-A3E3-5C83EBE34DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{A4354861-0A5C-41FF-A3E3-5C83EBE34DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F665FB-2B40-4632-A2C9-8CFCCC8C573B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{64E5AC50-0B1D-4E91-A6B6-AFEFF2C0522D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>H_Superior</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>x 5 veces</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* primero 12 se pusieron antes de lo horizotales ( paso 5-6-7-8)</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>** Colocados despues del check 3</t>
   </si>
 </sst>
 </file>
@@ -102,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,14 +133,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -335,36 +341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -372,21 +348,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -396,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -406,6 +367,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,29 +392,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +421,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -755,13 +717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE49EEC8-5302-47CE-838D-2420FD578583}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -772,7 +734,7 @@
     <col min="9" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -809,11 +771,36 @@
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="8"/>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -826,13 +813,26 @@
       <c r="H2" s="6">
         <v>12</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I2" s="15"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="30"/>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6">
+        <v>12</v>
+      </c>
+      <c r="W2" s="28"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -846,13 +846,27 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="30"/>
+      <c r="O3">
+        <f>O2+1</f>
+        <v>2</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -866,13 +880,27 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="30"/>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="1">O3+1</f>
+        <v>3</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6">
+        <v>12</v>
+      </c>
+      <c r="W4" s="28"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -886,13 +914,27 @@
       <c r="H5" s="6">
         <v>12</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="30"/>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6">
+        <v>24</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="28"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -906,13 +948,27 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="30"/>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="28"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -926,13 +982,27 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="30"/>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="28"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -946,13 +1016,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="30"/>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -966,55 +1050,85 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="30"/>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
+        <v>1</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="28"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
         <v>24</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="30"/>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="28"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>A10+1</f>
         <v>10</v>
@@ -1028,9 +1142,15 @@
       <c r="H13" s="6">
         <v>12</v>
       </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>A13+1</f>
         <v>11</v>
@@ -1044,9 +1164,12 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>A14+1</f>
         <v>12</v>
@@ -1060,10 +1183,13 @@
       <c r="H15" s="3">
         <v>12</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B16">
@@ -1095,7 +1221,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1119,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1143,13 +1269,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27">
         <v>12</v>
       </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
